--- a/data/hake_intrasp_221014.xlsx
+++ b/data/hake_intrasp_221014.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sowasser/Desktop/Local/hake-CEATTLE/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B05322E-E4FA-9C49-8DA8-19C32EC1CCE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1769AD9C-C97E-7947-8FC1-E92222B11F6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="21280" yWindow="500" windowWidth="38400" windowHeight="42700" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="42700" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="meta_data" sheetId="1" r:id="rId1"/>
@@ -2599,7 +2599,7 @@
   <dimension ref="A1:AG22"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="S1" sqref="S1:W1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -13904,7 +13904,7 @@
   <dimension ref="A1:AF2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="Y71" sqref="Y71"/>
+      <selection activeCell="R1" sqref="R1:V1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -14085,7 +14085,7 @@
   <dimension ref="A1:AF2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="Q2" sqref="Q2:V2"/>
+      <selection activeCell="Q1" sqref="Q1:V1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -14266,7 +14266,7 @@
   <dimension ref="A1:AG2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="S1" sqref="S1:W1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -15067,7 +15067,7 @@
   <dimension ref="A1:X41"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="T92" sqref="T92"/>
+      <selection activeCell="U1" sqref="U1:X1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -24866,7 +24866,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AA3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
@@ -26982,7 +26982,7 @@
   <dimension ref="A1:DV65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="AB75" sqref="AB75"/>
+      <selection activeCell="Y2" sqref="Y2:AC54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -32103,7 +32103,7 @@
   <dimension ref="A1:Z81"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:F81"/>
+      <selection activeCell="V1" sqref="V1:Z1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -38601,7 +38601,7 @@
   <dimension ref="A1:Y44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:Y2"/>
+      <selection activeCell="U1" sqref="U1:Y1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -38699,27 +38699,69 @@
       <c r="D2">
         <v>1980</v>
       </c>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
-      <c r="O2" s="2"/>
-      <c r="P2" s="2"/>
-      <c r="Q2" s="2"/>
-      <c r="R2" s="2"/>
-      <c r="S2" s="2"/>
-      <c r="T2" s="2"/>
-      <c r="U2" s="2"/>
-      <c r="V2" s="2"/>
-      <c r="W2" s="2"/>
-      <c r="X2" s="2"/>
-      <c r="Y2" s="2"/>
+      <c r="E2" s="2">
+        <v>11600000</v>
+      </c>
+      <c r="F2">
+        <v>698144</v>
+      </c>
+      <c r="G2">
+        <v>62617.599999999999</v>
+      </c>
+      <c r="H2" s="2">
+        <v>2140000</v>
+      </c>
+      <c r="I2">
+        <v>61915.5</v>
+      </c>
+      <c r="J2">
+        <v>350165</v>
+      </c>
+      <c r="K2">
+        <v>63953.9</v>
+      </c>
+      <c r="L2">
+        <v>646722</v>
+      </c>
+      <c r="M2">
+        <v>48380.2</v>
+      </c>
+      <c r="N2">
+        <v>60595.9</v>
+      </c>
+      <c r="O2">
+        <v>382092</v>
+      </c>
+      <c r="P2">
+        <v>31523.9</v>
+      </c>
+      <c r="Q2">
+        <v>70887.100000000006</v>
+      </c>
+      <c r="R2">
+        <v>72493.399999999994</v>
+      </c>
+      <c r="S2">
+        <v>22873.599999999999</v>
+      </c>
+      <c r="T2">
+        <v>18123.8</v>
+      </c>
+      <c r="U2">
+        <v>8244.24</v>
+      </c>
+      <c r="V2">
+        <v>4418.3999999999996</v>
+      </c>
+      <c r="W2">
+        <v>2709</v>
+      </c>
+      <c r="X2">
+        <v>1745.7</v>
+      </c>
+      <c r="Y2">
+        <v>8660.57</v>
+      </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
@@ -41745,8 +41787,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:AF22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="AF41" sqref="AF41"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18:XFD22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
